--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1602.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1602.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.196090436776623</v>
+        <v>0.5971993803977966</v>
       </c>
       <c r="B1">
-        <v>2.264734709571475</v>
+        <v>1.490510106086731</v>
       </c>
       <c r="C1">
-        <v>5.284098901396248</v>
+        <v>5.93446159362793</v>
       </c>
       <c r="D1">
-        <v>2.283489320322648</v>
+        <v>2.040632009506226</v>
       </c>
       <c r="E1">
-        <v>1.022137705013811</v>
+        <v>1.51197350025177</v>
       </c>
     </row>
   </sheetData>
